--- a/_MUT_USERBIN/GWF.xlsx
+++ b/_MUT_USERBIN/GWF.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Grdbldr\MUT_Examples\_MUT_USERBIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{987B2E5C-F87C-4807-8E15-63AB6ABDA3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{10E90C4F-B82D-40E9-B26E-0A388499E9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{122D133F-728C-41DF-B623-70CC6DE7E402}"/>
   </bookViews>
   <sheets>
     <sheet name="GWF" sheetId="1" r:id="rId1"/>
-    <sheet name="Units" sheetId="2" r:id="rId2"/>
+    <sheet name="Options" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
   <si>
     <t>Material ID</t>
   </si>
@@ -89,27 +89,12 @@
     <t>Borden sand</t>
   </si>
   <si>
-    <t>VSF Column</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>VSF Hillslope</t>
-  </si>
-  <si>
-    <t>3_SWF</t>
-  </si>
-  <si>
-    <t>VSF Column Brooks</t>
-  </si>
-  <si>
     <t>Brooks-Corey</t>
   </si>
   <si>
-    <t>3_SWF_Year</t>
-  </si>
-  <si>
     <t>YEARS</t>
   </si>
   <si>
@@ -156,18 +141,30 @@
   </si>
   <si>
     <t>DAYS</t>
+  </si>
+  <si>
+    <t>1D Column</t>
+  </si>
+  <si>
+    <t>2D Hillslope</t>
+  </si>
+  <si>
+    <t>1D Column Brooks</t>
+  </si>
+  <si>
+    <t>2D Hillslope seconds</t>
+  </si>
+  <si>
+    <t>3D Abduls Problem</t>
+  </si>
+  <si>
+    <t>2D Hillslope 100 m length</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-  </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -694,7 +691,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -702,9 +699,12 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1062,10 +1062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C16DCD-FBFC-4CDF-A4BF-BCF0CDEB1753}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1085,7 +1085,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1128,7 +1128,7 @@
         <v>3</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
@@ -1136,49 +1136,49 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C2">
         <v>0.3</v>
       </c>
       <c r="D2">
-        <v>1.0000000000000001E-5</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>1.0000000000000001E-5</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1E-4</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="H2">
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="I2" t="s">
         <v>18</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="K2">
-        <v>5</v>
+        <v>1.56</v>
       </c>
       <c r="L2">
-        <v>0.3</v>
+        <v>0.18140000000000001</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>6.5713999999999997</v>
       </c>
       <c r="N2" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="O2" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
@@ -1187,100 +1187,100 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C3">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D3">
-        <v>1E-8</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>1E-8</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1E-4</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="H3">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="K3">
-        <v>5</v>
+        <v>1.56</v>
       </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>0.18140000000000001</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>6.5713999999999997</v>
       </c>
       <c r="N3" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="O3" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A10" si="0">A3+1</f>
+        <f t="shared" ref="A4:A11" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="C4">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="D4">
-        <v>9.9999999999999995E-7</v>
+        <v>31.536000000000001</v>
       </c>
       <c r="E4">
-        <v>9.9999999999999995E-7</v>
+        <v>31.536000000000001</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>31.536000000000001</v>
       </c>
       <c r="G4">
-        <v>1E-4</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="H4">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="I4" t="s">
         <v>18</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>3.34</v>
       </c>
       <c r="K4">
-        <v>5</v>
+        <v>1.982</v>
       </c>
       <c r="L4">
-        <v>0.5</v>
+        <v>0.27710000000000001</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>6.5713999999999997</v>
       </c>
       <c r="N4" t="s">
         <v>16</v>
       </c>
       <c r="O4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
@@ -1289,37 +1289,37 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="C5">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="D5">
-        <v>1.0000000000000001E-5</v>
+        <v>1.47E-4</v>
       </c>
       <c r="E5">
-        <v>1.0000000000000001E-5</v>
+        <v>1.47E-4</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.1999999999999999E-7</v>
+        <v>1E-4</v>
       </c>
       <c r="H5">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="I5" t="s">
         <v>18</v>
       </c>
       <c r="J5">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L5">
-        <v>0.18</v>
+        <v>0.3</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -1331,7 +1331,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
@@ -1340,37 +1340,37 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C6">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>9.9999999999999995E-8</v>
+        <v>1.1999999999999999E-7</v>
       </c>
       <c r="H6">
-        <v>0.43</v>
+        <v>0.34</v>
       </c>
       <c r="I6" t="s">
         <v>18</v>
       </c>
       <c r="J6">
-        <v>3.5999999999999997E-2</v>
+        <v>1.9</v>
       </c>
       <c r="K6">
-        <v>1.56</v>
+        <v>6</v>
       </c>
       <c r="L6">
-        <v>0.18140000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -1382,7 +1382,7 @@
         <v>17</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
@@ -1391,37 +1391,37 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C7">
-        <v>0.1</v>
+        <v>0.34</v>
       </c>
       <c r="D7">
-        <v>31.536000000000001</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="E7">
-        <v>31.536000000000001</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F7">
-        <v>1.0000000000000001E-5</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>1.0000000000000001E-5</v>
+        <v>1.1999999999999999E-7</v>
       </c>
       <c r="H7">
-        <v>0.1</v>
+        <v>0.34</v>
       </c>
       <c r="I7" t="s">
         <v>18</v>
       </c>
       <c r="J7">
-        <v>3.3399999999999999E-2</v>
+        <v>1.9</v>
       </c>
       <c r="K7">
-        <v>1.982</v>
+        <v>6</v>
       </c>
       <c r="L7">
-        <v>0.27710000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -1433,7 +1433,7 @@
         <v>17</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
@@ -1442,16 +1442,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>0.3</v>
       </c>
       <c r="D8">
-        <v>1.47E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="E8">
-        <v>1.47E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1484,7 +1484,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
@@ -1493,28 +1493,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>1E-8</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>1E-8</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>9.9999999999999995E-8</v>
+        <v>1E-4</v>
       </c>
       <c r="H9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="I9" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1523,10 +1523,10 @@
         <v>5</v>
       </c>
       <c r="L9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="M9">
-        <v>6.5713999999999997</v>
+        <v>1</v>
       </c>
       <c r="N9" t="s">
         <v>16</v>
@@ -1535,7 +1535,7 @@
         <v>17</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
@@ -1544,68 +1544,124 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C10">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="D10">
-        <v>31.536000000000001</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="E10">
-        <v>31.536000000000001</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="F10">
-        <v>31.536000000000001</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>9.9999999999999995E-8</v>
+        <v>1E-4</v>
       </c>
       <c r="H10">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="I10" t="s">
         <v>18</v>
       </c>
       <c r="J10">
-        <v>3.34</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>1.982</v>
+        <v>5</v>
       </c>
       <c r="L10">
-        <v>0.27710000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>6.5713999999999997</v>
+        <v>1</v>
       </c>
       <c r="N10" t="s">
         <v>16</v>
       </c>
       <c r="O10" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11">
+        <v>0.1</v>
+      </c>
+      <c r="D11">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="E11">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="F11">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="G11">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H11">
+        <v>0.1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11">
+        <v>3.3399999999999999E-2</v>
+      </c>
+      <c r="K11">
+        <v>1.982</v>
+      </c>
+      <c r="L11">
+        <v>0.27710000000000001</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="eCM4SZ7+ihwVabKW7WLOmCFcjhrSWmjTbqfOUb8Bm1au5fu9e1BIJXBYwhsFImzKik05kz1rCu1HlbDXTfhyOQ==" saltValue="DvDvfFpaO1ANQ6CLR6Bptg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E1370013-1290-4041-B096-C39201FAFC03}">
           <x14:formula1>
-            <xm:f>Units!$A$2:$A$4</xm:f>
+            <xm:f>Options!$A$2:$A$4</xm:f>
           </x14:formula1>
           <xm:sqref>N1:N1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0A966699-7AD2-4850-A67A-8AF9E4E4124B}">
           <x14:formula1>
-            <xm:f>Units!$B$2:$B$6</xm:f>
+            <xm:f>Options!$B$2:$B$6</xm:f>
           </x14:formula1>
           <xm:sqref>O1:O1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6293C50D-3061-4770-95B9-4B3AA95ED501}">
+          <x14:formula1>
+            <xm:f>Options!$D$2:$D$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>I1:I1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1615,67 +1671,75 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CCE5A5-D02A-45E3-85E8-50E780745C47}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0zuKWkqjzjRDZc+w6wiGUT40+sQcTDSHvUn+4H63jjkZM+Pfq7eP51e96fdtWLAy9cNLecUJe2WtHgt9Abm6CQ==" saltValue="lTprKt0OaxoocgfyPPXbXA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/_MUT_USERBIN/GWF.xlsx
+++ b/_MUT_USERBIN/GWF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Grdbldr\MUT_Examples\_MUT_USERBIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{10E90C4F-B82D-40E9-B26E-0A388499E9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCFF615-C707-4547-8DD8-D65B945BC74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{122D133F-728C-41DF-B623-70CC6DE7E402}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{122D133F-728C-41DF-B623-70CC6DE7E402}"/>
   </bookViews>
   <sheets>
     <sheet name="GWF" sheetId="1" r:id="rId1"/>
@@ -1064,8 +1064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C16DCD-FBFC-4CDF-A4BF-BCF0CDEB1753}">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1641,6 +1641,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="UM9O9WmK+vQYAWHgaKvL5AF2CXlGIcS3zLJXq3GkAIqA795fupyO7rG3oVXuQHvv1Pc9fNcOSFcuBkNlfEuh1w==" saltValue="2PanbMhfx2RmyYh+RhY9Sg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -1673,8 +1674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CCE5A5-D02A-45E3-85E8-50E780745C47}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1740,6 +1741,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="M1M14oWB2ATB9Is43BJU6utOeibQakUKa/Agx7BF4zFGrHNDw4K7sJJsdQ/dXR4Lf2PTgaNBQiTKeNWEpKpiGQ==" saltValue="RTFRG0M5i4zrmPyksI9wNQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/_MUT_USERBIN/GWF.xlsx
+++ b/_MUT_USERBIN/GWF.xlsx
@@ -5,18 +5,31 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Grdbldr\MUT_Examples\_MUT_USERBIN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\young\source\repos\MUT_Examples\_MUT_USERBIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCFF615-C707-4547-8DD8-D65B945BC74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4E89B6-8EA3-4FDF-B0F2-B52DE7DA753D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{122D133F-728C-41DF-B623-70CC6DE7E402}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{122D133F-728C-41DF-B623-70CC6DE7E402}"/>
   </bookViews>
   <sheets>
     <sheet name="GWF" sheetId="1" r:id="rId1"/>
     <sheet name="Options" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -766,9 +779,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -806,7 +819,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -912,7 +925,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1054,7 +1067,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1064,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C16DCD-FBFC-4CDF-A4BF-BCF0CDEB1753}">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1262,7 +1275,7 @@
         <v>18</v>
       </c>
       <c r="J4">
-        <v>3.34</v>
+        <v>3.3399999999999999E-2</v>
       </c>
       <c r="K4">
         <v>1.982</v>
@@ -1641,7 +1654,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UM9O9WmK+vQYAWHgaKvL5AF2CXlGIcS3zLJXq3GkAIqA795fupyO7rG3oVXuQHvv1Pc9fNcOSFcuBkNlfEuh1w==" saltValue="2PanbMhfx2RmyYh+RhY9Sg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="DDANofhB180K5nR+ifSRUz4Qrv/GLzEBIwwR4WqhY+0PNXMQyFjLqVYaduMduypSlj/78JGRQ2JLfxKKL0fN0Q==" saltValue="+dITltPo7KRKZUDpRyh4dQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -1674,7 +1687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CCE5A5-D02A-45E3-85E8-50E780745C47}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/_MUT_USERBIN/GWF.xlsx
+++ b/_MUT_USERBIN/GWF.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\young\source\repos\MUT_Examples\_MUT_USERBIN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Grdbldr\MUT_Examples\_MUT_USERBIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4E89B6-8EA3-4FDF-B0F2-B52DE7DA753D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C094850-13BA-4CBD-9B91-3CB9393ACBAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{122D133F-728C-41DF-B623-70CC6DE7E402}"/>
   </bookViews>
@@ -17,24 +17,11 @@
     <sheet name="Options" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="44">
   <si>
     <t>Material ID</t>
   </si>
@@ -123,9 +110,6 @@
     <t>Rob copied these properties from the prototype VSF column  LPF file</t>
   </si>
   <si>
-    <t>Rob copied these properties from the prototype VSF Hillslope LPF file</t>
-  </si>
-  <si>
     <t>Length</t>
   </si>
   <si>
@@ -163,9 +147,6 @@
   </si>
   <si>
     <t>1D Column Brooks</t>
-  </si>
-  <si>
-    <t>2D Hillslope seconds</t>
   </si>
   <si>
     <t>3D Abduls Problem</t>
@@ -704,21 +685,32 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -779,9 +771,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -819,7 +811,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -925,7 +917,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1067,7 +1059,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1077,584 +1069,534 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C16DCD-FBFC-4CDF-A4BF-BCF0CDEB1753}">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="20" style="4" customWidth="1"/>
-    <col min="3" max="8" width="9.140625" style="4"/>
-    <col min="9" max="9" width="14.28515625" style="4" customWidth="1"/>
-    <col min="10" max="13" width="9.140625" style="4"/>
-    <col min="14" max="14" width="11.42578125" style="4" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" style="4" customWidth="1"/>
-    <col min="16" max="16" width="46.7109375" style="4" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="10.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20" style="2" customWidth="1"/>
+    <col min="3" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="14.28515625" style="2" customWidth="1"/>
+    <col min="10" max="13" width="9.140625" style="2"/>
+    <col min="14" max="14" width="11.42578125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="46.7109375" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="8">
         <v>0.3</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="8">
         <v>10</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="8">
         <v>10</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="8">
         <v>0</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="8">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="8">
         <v>0.43</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="8">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="8">
         <v>1.56</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="8">
         <v>0.18140000000000001</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="8">
         <v>6.5713999999999997</v>
       </c>
-      <c r="N2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" s="3" t="s">
+      <c r="N2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="8">
         <v>0.3</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="8">
         <v>10</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="8">
         <v>10</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="8">
         <v>0</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="8">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="8">
         <v>0.43</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="8">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="8">
         <v>1.56</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="8">
         <v>0.18140000000000001</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="8">
         <v>6.5713999999999997</v>
       </c>
-      <c r="N3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="3" t="s">
+      <c r="N3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f t="shared" ref="A4:A11" si="0">A3+1</f>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <f t="shared" ref="A4:A12" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="8">
         <v>0.1</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="8">
         <v>31.536000000000001</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="8">
         <v>31.536000000000001</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="8">
         <v>31.536000000000001</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="8">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="8">
         <v>0.1</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="8">
         <v>3.3399999999999999E-2</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="8">
         <v>1.982</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="8">
         <v>0.27710000000000001</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="8">
         <v>6.5713999999999997</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="8">
         <v>0.3</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="8">
         <v>1.47E-4</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="8">
         <v>1.47E-4</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="8">
         <v>0</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="8">
         <v>1E-4</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="8">
         <v>0.3</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="8">
         <v>1</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="8">
         <v>5</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="8">
         <v>0.3</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="8">
         <v>1</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="8">
         <v>0.34</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="8">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="8">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="8">
         <v>0</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="8">
         <v>1.1999999999999999E-7</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="8">
         <v>0.34</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="8">
         <v>1.9</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="8">
         <v>6</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="8">
         <v>0.18</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="8">
         <v>1</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="P6" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="8">
         <v>0.34</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="8">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="8">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="8">
         <v>0</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="8">
         <v>1.1999999999999999E-7</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="8">
         <v>0.34</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="8">
         <v>1.9</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="8">
         <v>6</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="8">
         <v>0.18</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="8">
         <v>1</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="P7" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="8">
         <v>0.3</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="8">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="8">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="8">
         <v>0</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="8">
         <v>1E-4</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="8">
         <v>0.3</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="8">
         <v>1</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="8">
         <v>5</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="8">
         <v>0.3</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="8">
         <v>1</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="P8" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="8">
         <v>0.5</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="8">
         <v>1E-8</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="8">
         <v>1E-8</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="8">
         <v>0</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="8">
         <v>1E-4</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="8">
         <v>0.5</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="8">
         <v>1</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="8">
         <v>5</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="8">
         <v>0.5</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="8">
         <v>1</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="P9" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="8">
         <v>0.4</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="8">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="8">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="8">
         <v>0</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="8">
         <v>1E-4</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="8">
         <v>0.4</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="8">
         <v>1</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="8">
         <v>5</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="8">
         <v>0.5</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="8">
         <v>1</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="P10" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11">
-        <v>0.1</v>
-      </c>
-      <c r="D11">
-        <v>31.536000000000001</v>
-      </c>
-      <c r="E11">
-        <v>31.536000000000001</v>
-      </c>
-      <c r="F11">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="G11">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="H11">
-        <v>0.1</v>
-      </c>
-      <c r="I11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11">
-        <v>3.3399999999999999E-2</v>
-      </c>
-      <c r="K11">
-        <v>1.982</v>
-      </c>
-      <c r="L11">
-        <v>0.27710000000000001</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11" t="s">
-        <v>16</v>
-      </c>
-      <c r="O11" t="s">
-        <v>17</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>29</v>
-      </c>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P11" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="DDANofhB180K5nR+ifSRUz4Qrv/GLzEBIwwR4WqhY+0PNXMQyFjLqVYaduMduypSlj/78JGRQ2JLfxKKL0fN0Q==" saltValue="+dITltPo7KRKZUDpRyh4dQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="tTmTpaV4zcZSM1UVJkR7sYhVA+MysjqVeZUHeNy9oj8AV/PA8WcIBIsPz1K11dud12U9GHwsa8yUHvTjHi87/Q==" saltValue="roum0i+qFJboHBRoYu5v3g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -1695,13 +1637,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>31</v>
-      </c>
-      <c r="C1" t="s">
-        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>10</v>
@@ -1709,13 +1651,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -1726,10 +1668,10 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
         <v>35</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
       </c>
       <c r="D3" t="s">
         <v>23</v>
@@ -1737,15 +1679,15 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
         <v>37</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">

--- a/_MUT_USERBIN/GWF.xlsx
+++ b/_MUT_USERBIN/GWF.xlsx
@@ -1,27 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Grdbldr\MUT_Examples\_MUT_USERBIN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SandBox\_MUT_USERBIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C094850-13BA-4CBD-9B91-3CB9393ACBAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960819B0-93FD-416D-B348-007A07512B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{122D133F-728C-41DF-B623-70CC6DE7E402}"/>
+    <workbookView xWindow="12600" yWindow="60" windowWidth="16200" windowHeight="7575" xr2:uid="{122D133F-728C-41DF-B623-70CC6DE7E402}"/>
   </bookViews>
   <sheets>
     <sheet name="GWF" sheetId="1" r:id="rId1"/>
     <sheet name="Options" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="50">
   <si>
     <t>Material ID</t>
   </si>
@@ -110,6 +123,9 @@
     <t>Rob copied these properties from the prototype VSF column  LPF file</t>
   </si>
   <si>
+    <t>Rob copied these properties from the prototype VSF Hillslope LPF file</t>
+  </si>
+  <si>
     <t>Length</t>
   </si>
   <si>
@@ -149,10 +165,25 @@
     <t>1D Column Brooks</t>
   </si>
   <si>
+    <t>2D Hillslope seconds</t>
+  </si>
+  <si>
     <t>3D Abduls Problem</t>
   </si>
   <si>
     <t>2D Hillslope 100 m length</t>
+  </si>
+  <si>
+    <t>Superslab soil</t>
+  </si>
+  <si>
+    <t>Copied from super_slab_case.mprops</t>
+  </si>
+  <si>
+    <t>Superslab slab1</t>
+  </si>
+  <si>
+    <t>Superslab slab2</t>
   </si>
 </sst>
 </file>
@@ -685,32 +716,24 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1067,536 +1090,736 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C16DCD-FBFC-4CDF-A4BF-BCF0CDEB1753}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20" style="2" customWidth="1"/>
-    <col min="3" max="8" width="9.140625" style="2"/>
-    <col min="9" max="9" width="14.28515625" style="2" customWidth="1"/>
-    <col min="10" max="13" width="9.140625" style="2"/>
-    <col min="14" max="14" width="11.42578125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="46.7109375" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="10.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20" style="4" customWidth="1"/>
+    <col min="3" max="8" width="9.140625" style="4"/>
+    <col min="9" max="9" width="14.28515625" style="4" customWidth="1"/>
+    <col min="10" max="13" width="9.140625" style="4"/>
+    <col min="14" max="14" width="11.42578125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" style="4" customWidth="1"/>
+    <col min="16" max="16" width="46.7109375" style="4" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+    <row r="2" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>0.3</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="H2">
+        <v>0.43</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="K2">
+        <v>1.56</v>
+      </c>
+      <c r="L2">
+        <v>0.18140000000000001</v>
+      </c>
+      <c r="M2">
+        <v>6.5713999999999997</v>
+      </c>
+      <c r="N2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="D2" s="8">
-        <v>10</v>
-      </c>
-      <c r="E2" s="8">
-        <v>10</v>
-      </c>
-      <c r="F2" s="8">
-        <v>0</v>
-      </c>
-      <c r="G2" s="8">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="H2" s="8">
-        <v>0.43</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="8">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="K2" s="8">
-        <v>1.56</v>
-      </c>
-      <c r="L2" s="8">
-        <v>0.18140000000000001</v>
-      </c>
-      <c r="M2" s="8">
-        <v>6.5713999999999997</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+    <row r="3" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3">
+        <v>0.3</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="H3">
+        <v>0.43</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="K3">
+        <v>1.56</v>
+      </c>
+      <c r="L3">
+        <v>0.18140000000000001</v>
+      </c>
+      <c r="M3">
+        <v>6.5713999999999997</v>
+      </c>
+      <c r="N3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A11" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="D3" s="8">
-        <v>10</v>
-      </c>
-      <c r="E3" s="8">
-        <v>10</v>
-      </c>
-      <c r="F3" s="8">
-        <v>0</v>
-      </c>
-      <c r="G3" s="8">
+      <c r="C4">
+        <v>0.1</v>
+      </c>
+      <c r="D4">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="E4">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="F4">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="G4">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="H3" s="8">
-        <v>0.43</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="8">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="K3" s="8">
-        <v>1.56</v>
-      </c>
-      <c r="L3" s="8">
-        <v>0.18140000000000001</v>
-      </c>
-      <c r="M3" s="8">
+      <c r="H4">
+        <v>0.1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4">
+        <v>3.3399999999999999E-2</v>
+      </c>
+      <c r="K4">
+        <v>1.982</v>
+      </c>
+      <c r="L4">
+        <v>0.27710000000000001</v>
+      </c>
+      <c r="M4">
         <v>6.5713999999999997</v>
       </c>
-      <c r="N3" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="P3" s="9" t="s">
+      <c r="N4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <f t="shared" ref="A4:A12" si="0">A3+1</f>
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="D4" s="8">
-        <v>31.536000000000001</v>
-      </c>
-      <c r="E4" s="8">
-        <v>31.536000000000001</v>
-      </c>
-      <c r="F4" s="8">
-        <v>31.536000000000001</v>
-      </c>
-      <c r="G4" s="8">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="H4" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="8">
-        <v>3.3399999999999999E-2</v>
-      </c>
-      <c r="K4" s="8">
-        <v>1.982</v>
-      </c>
-      <c r="L4" s="8">
-        <v>0.27710000000000001</v>
-      </c>
-      <c r="M4" s="8">
-        <v>6.5713999999999997</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+    <row r="5" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="8">
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5">
         <v>0.3</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5">
         <v>1.47E-4</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5">
         <v>1.47E-4</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5">
         <v>1E-4</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5">
         <v>0.3</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5">
         <v>1</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5">
         <v>5</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5">
         <v>0.3</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5">
         <v>1</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="N5" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="O5" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="P5" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+    <row r="6" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="8">
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6">
         <v>0.34</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6">
         <v>1.1999999999999999E-7</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6">
         <v>0.34</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6">
         <v>1.9</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6">
         <v>6</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6">
         <v>0.18</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6">
         <v>1</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="N6" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="O6" t="s">
         <v>17</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+    <row r="7" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7">
         <v>0.34</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7">
         <v>1.1999999999999999E-7</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7">
         <v>0.34</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7">
         <v>1.9</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7">
         <v>6</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7">
         <v>0.18</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7">
         <v>1</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="N7" t="s">
         <v>16</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="O7" t="s">
         <v>17</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="P7" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+    <row r="8" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8">
         <v>0.3</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8">
         <v>1E-4</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8">
         <v>0.3</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8">
         <v>1</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8">
         <v>5</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8">
         <v>0.3</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8">
         <v>1</v>
       </c>
-      <c r="N8" s="8" t="s">
+      <c r="N8" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="8" t="s">
+      <c r="O8" t="s">
         <v>17</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="P8" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+    <row r="9" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9">
         <v>0.5</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9">
         <v>1E-8</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9">
         <v>1E-8</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9">
         <v>1E-4</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9">
         <v>0.5</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9">
         <v>1</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9">
         <v>5</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9">
         <v>0.5</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9">
         <v>1</v>
       </c>
-      <c r="N9" s="8" t="s">
+      <c r="N9" t="s">
         <v>16</v>
       </c>
-      <c r="O9" s="8" t="s">
+      <c r="O9" t="s">
         <v>17</v>
       </c>
-      <c r="P9" s="9" t="s">
+      <c r="P9" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+    <row r="10" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10">
         <v>0.4</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10">
         <v>1E-4</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10">
         <v>0.4</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10">
         <v>1</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10">
         <v>5</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10">
         <v>0.5</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10">
         <v>1</v>
       </c>
-      <c r="N10" s="8" t="s">
+      <c r="N10" t="s">
         <v>16</v>
       </c>
-      <c r="O10" s="8" t="s">
+      <c r="O10" t="s">
         <v>17</v>
       </c>
-      <c r="P10" s="9" t="s">
+      <c r="P10" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="P11" s="4"/>
+    <row r="11" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11">
+        <v>0.1</v>
+      </c>
+      <c r="D11">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="E11">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="F11">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="G11">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H11">
+        <v>0.1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11">
+        <v>3.3399999999999999E-2</v>
+      </c>
+      <c r="K11">
+        <v>1.982</v>
+      </c>
+      <c r="L11">
+        <v>0.27710000000000001</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>10</v>
+      </c>
+      <c r="E12" s="4">
+        <v>10</v>
+      </c>
+      <c r="F12" s="4">
+        <v>10</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="4">
+        <v>6</v>
+      </c>
+      <c r="K12" s="4">
+        <v>2</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="M12" s="4">
+        <v>1</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F13" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="4">
+        <v>1</v>
+      </c>
+      <c r="K13" s="4">
+        <v>3</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="M13" s="4">
+        <v>1</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="4">
+        <v>1</v>
+      </c>
+      <c r="K14" s="4">
+        <v>3</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="M14" s="4">
+        <v>1</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="tTmTpaV4zcZSM1UVJkR7sYhVA+MysjqVeZUHeNy9oj8AV/PA8WcIBIsPz1K11dud12U9GHwsa8yUHvTjHi87/Q==" saltValue="roum0i+qFJboHBRoYu5v3g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="DDANofhB180K5nR+ifSRUz4Qrv/GLzEBIwwR4WqhY+0PNXMQyFjLqVYaduMduypSlj/78JGRQ2JLfxKKL0fN0Q==" saltValue="+dITltPo7KRKZUDpRyh4dQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -1637,13 +1860,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>10</v>
@@ -1651,13 +1874,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -1668,10 +1891,10 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
         <v>23</v>
@@ -1679,15 +1902,15 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">

--- a/_MUT_USERBIN/GWF.xlsx
+++ b/_MUT_USERBIN/GWF.xlsx
@@ -5,36 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SandBox\_MUT_USERBIN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Grdbldr\MUT_Examples\_MUT_USERBIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960819B0-93FD-416D-B348-007A07512B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE88C2B4-255D-4758-B6CE-D069B15A4B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12600" yWindow="60" windowWidth="16200" windowHeight="7575" xr2:uid="{122D133F-728C-41DF-B623-70CC6DE7E402}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16200" xr2:uid="{122D133F-728C-41DF-B623-70CC6DE7E402}"/>
   </bookViews>
   <sheets>
     <sheet name="GWF" sheetId="1" r:id="rId1"/>
     <sheet name="Options" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="59">
   <si>
     <t>Material ID</t>
   </si>
@@ -174,16 +161,43 @@
     <t>2D Hillslope 100 m length</t>
   </si>
   <si>
-    <t>Superslab soil</t>
-  </si>
-  <si>
     <t>Copied from super_slab_case.mprops</t>
   </si>
   <si>
-    <t>Superslab slab1</t>
-  </si>
-  <si>
-    <t>Superslab slab2</t>
+    <t>Copied from smith.mprops</t>
+  </si>
+  <si>
+    <t>Forsyth Zone 1</t>
+  </si>
+  <si>
+    <t>Smith-Woolhiser Layer 1</t>
+  </si>
+  <si>
+    <t>Smith-Woolhiser Layer 2</t>
+  </si>
+  <si>
+    <t>Smith-Woolhiser Layer 3</t>
+  </si>
+  <si>
+    <t>Superslab Soil</t>
+  </si>
+  <si>
+    <t>Superslab Slab 1</t>
+  </si>
+  <si>
+    <t>Superslab Slab 2</t>
+  </si>
+  <si>
+    <t>Copied from forsyth.mprops</t>
+  </si>
+  <si>
+    <t>Forsyth Zone 2</t>
+  </si>
+  <si>
+    <t>Forsyth Zone 3</t>
+  </si>
+  <si>
+    <t>Forsyth Zone 4</t>
   </si>
 </sst>
 </file>
@@ -716,24 +730,26 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1090,737 +1106,1098 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C16DCD-FBFC-4CDF-A4BF-BCF0CDEB1753}">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="20" style="4" customWidth="1"/>
-    <col min="3" max="8" width="9.140625" style="4"/>
-    <col min="9" max="9" width="14.28515625" style="4" customWidth="1"/>
-    <col min="10" max="13" width="9.140625" style="4"/>
-    <col min="14" max="14" width="11.42578125" style="4" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" style="4" customWidth="1"/>
-    <col min="16" max="16" width="46.7109375" style="4" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="10.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28" style="2" customWidth="1"/>
+    <col min="3" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="14.28515625" style="2" customWidth="1"/>
+    <col min="10" max="13" width="9.140625" style="2"/>
+    <col min="14" max="14" width="11.42578125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="46.7109375" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="6">
         <v>0.3</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="6">
         <v>10</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="6">
         <v>10</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="6">
         <v>0</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="6">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="6">
         <v>0.43</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="6">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="6">
         <v>1.56</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="6">
         <v>0.18140000000000001</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="6">
         <v>6.5713999999999997</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="6">
         <v>0.3</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="6">
         <v>10</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="6">
         <v>10</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="6">
         <v>0</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="6">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="6">
         <v>0.43</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="6">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="6">
         <v>1.56</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="6">
         <v>0.18140000000000001</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="6">
         <v>6.5713999999999997</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f t="shared" ref="A4:A11" si="0">A3+1</f>
+    <row r="4" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <f t="shared" ref="A4:A21" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="6">
         <v>0.1</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="6">
         <v>31.536000000000001</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="6">
         <v>31.536000000000001</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="6">
         <v>31.536000000000001</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="6">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="6">
         <v>0.1</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="6">
         <v>3.3399999999999999E-2</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="6">
         <v>1.982</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="6">
         <v>0.27710000000000001</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="6">
         <v>6.5713999999999997</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="6">
         <v>0.3</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="6">
         <v>1.47E-4</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="6">
         <v>1.47E-4</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="6">
         <v>0</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="6">
         <v>1E-4</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="6">
         <v>0.3</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
+      <c r="J5" s="6">
+        <v>1</v>
+      </c>
+      <c r="K5" s="6">
         <v>5</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="6">
         <v>0.3</v>
       </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="M5" s="6">
+        <v>1</v>
+      </c>
+      <c r="N5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="6">
         <v>0.34</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="6">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="6">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="6">
         <v>0</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="6">
         <v>1.1999999999999999E-7</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="6">
         <v>0.34</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="6">
         <v>1.9</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="6">
         <v>6</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="6">
         <v>0.18</v>
       </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="M6" s="6">
+        <v>1</v>
+      </c>
+      <c r="N6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="P6" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="6">
         <v>0.34</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="6">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="6">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="6">
         <v>0</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="6">
         <v>1.1999999999999999E-7</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="6">
         <v>0.34</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="6">
         <v>1.9</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="6">
         <v>6</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="6">
         <v>0.18</v>
       </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="M7" s="6">
+        <v>1</v>
+      </c>
+      <c r="N7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="P7" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="6">
         <v>0.3</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="6">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="6">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="6">
         <v>0</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="6">
         <v>1E-4</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="6">
         <v>0.3</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
+      <c r="J8" s="6">
+        <v>1</v>
+      </c>
+      <c r="K8" s="6">
         <v>5</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="6">
         <v>0.3</v>
       </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="M8" s="6">
+        <v>1</v>
+      </c>
+      <c r="N8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="P8" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="6">
         <v>0.5</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="6">
         <v>1E-8</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="6">
         <v>1E-8</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="6">
         <v>0</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="6">
         <v>1E-4</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="6">
         <v>0.5</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
+      <c r="J9" s="6">
+        <v>1</v>
+      </c>
+      <c r="K9" s="6">
         <v>5</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="6">
         <v>0.5</v>
       </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="M9" s="6">
+        <v>1</v>
+      </c>
+      <c r="N9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="P9" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="6">
         <v>0.4</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="6">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="6">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="6">
         <v>0</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="6">
         <v>1E-4</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="6">
         <v>0.4</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
+      <c r="J10" s="6">
+        <v>1</v>
+      </c>
+      <c r="K10" s="6">
         <v>5</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="6">
         <v>0.5</v>
       </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="M10" s="6">
+        <v>1</v>
+      </c>
+      <c r="N10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="P10" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="6">
         <v>0.1</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="6">
         <v>31.536000000000001</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="6">
         <v>31.536000000000001</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="6">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="6">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="6">
         <v>0.1</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="6">
         <v>3.3399999999999999E-2</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="6">
         <v>1.982</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="6">
         <v>0.27710000000000001</v>
       </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="M11" s="6">
+        <v>1</v>
+      </c>
+      <c r="N11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="P11" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+    <row r="12" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="D12" s="6">
+        <v>10</v>
+      </c>
+      <c r="E12" s="6">
+        <v>10</v>
+      </c>
+      <c r="F12" s="6">
+        <v>10</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="6">
+        <v>6</v>
+      </c>
+      <c r="K12" s="6">
+        <v>2</v>
+      </c>
+      <c r="L12" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="M12" s="6">
+        <v>1</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P12" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="4">
+    </row>
+    <row r="13" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="6">
         <v>0.1</v>
       </c>
-      <c r="D12" s="4">
-        <v>10</v>
-      </c>
-      <c r="E12" s="4">
-        <v>10</v>
-      </c>
-      <c r="F12" s="4">
-        <v>10</v>
-      </c>
-      <c r="G12" s="6">
+      <c r="D13" s="6">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E13" s="6">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F13" s="6">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G13" s="6">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H13" s="6">
         <v>0.1</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="4">
-        <v>6</v>
-      </c>
-      <c r="K12" s="4">
-        <v>2</v>
-      </c>
-      <c r="L12" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="M12" s="4">
-        <v>1</v>
-      </c>
-      <c r="N12" s="4" t="s">
+      <c r="J13" s="6">
+        <v>1</v>
+      </c>
+      <c r="K13" s="6">
+        <v>3</v>
+      </c>
+      <c r="L13" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="M13" s="6">
+        <v>1</v>
+      </c>
+      <c r="N13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="O12" s="4" t="s">
+      <c r="O13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="P12" s="4" t="s">
+      <c r="P13" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="6">
+        <v>1</v>
+      </c>
+      <c r="K14" s="6">
+        <v>3</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="M14" s="6">
+        <v>1</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.39460000000000001</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0.184</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0.184</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.184</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0.39460000000000001</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K15" s="6">
+        <v>3.9264999999999999</v>
+      </c>
+      <c r="L15" s="6">
+        <v>5.0680000000000003E-2</v>
+      </c>
+      <c r="M15" s="6">
+        <v>1</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="P15" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
+    <row r="16" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.43869999999999998</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.1452</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.1452</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.1452</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0.43869999999999998</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="6">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="K16" s="6">
+        <v>4.1371000000000002</v>
+      </c>
+      <c r="L16" s="6">
+        <v>5.6989999999999999E-2</v>
+      </c>
+      <c r="M16" s="6">
+        <v>1</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.47639999999999999</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.12959999999999999</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.12959999999999999</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0.12959999999999999</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0.47639999999999999</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="6">
+        <v>5.2479999999999999E-2</v>
+      </c>
+      <c r="K17" s="6">
+        <v>4.4299999999999999E-2</v>
+      </c>
+      <c r="L17" s="6">
+        <v>4.3564999999999996</v>
+      </c>
+      <c r="M17" s="6">
+        <v>1</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D13" s="4">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E13" s="4">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="F13" s="4">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="G13" s="4">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="H13" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="I13" s="4" t="s">
+      <c r="C18" s="6">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="D18" s="6">
+        <v>701.35299999999995</v>
+      </c>
+      <c r="E18" s="6">
+        <v>701.35299999999995</v>
+      </c>
+      <c r="F18" s="6">
+        <v>701.35299999999995</v>
+      </c>
+      <c r="G18" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="I18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="4">
-        <v>1</v>
-      </c>
-      <c r="K13" s="4">
-        <v>3</v>
-      </c>
-      <c r="L13" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="M13" s="4">
-        <v>1</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="E14" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="F14" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="G14" s="4">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="H14" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="I14" s="4" t="s">
+      <c r="J18" s="6">
+        <v>3.3399999999999999E-2</v>
+      </c>
+      <c r="K18" s="6">
+        <v>1.982</v>
+      </c>
+      <c r="L18" s="6">
+        <v>0.27710000000000001</v>
+      </c>
+      <c r="M18" s="6">
+        <v>1</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="J14" s="4">
-        <v>1</v>
-      </c>
-      <c r="K14" s="4">
-        <v>3</v>
-      </c>
-      <c r="L14" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="M14" s="4">
-        <v>1</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>47</v>
+      <c r="B19" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="D19" s="6">
+        <v>417.20729999999998</v>
+      </c>
+      <c r="E19" s="6">
+        <v>417.20729999999998</v>
+      </c>
+      <c r="F19" s="6">
+        <v>417.20729999999998</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="6">
+        <v>3.6299999999999999E-2</v>
+      </c>
+      <c r="K19" s="6">
+        <v>1.6319999999999999</v>
+      </c>
+      <c r="L19" s="6">
+        <v>0.28060000000000002</v>
+      </c>
+      <c r="M19" s="6">
+        <v>1</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="D20" s="6">
+        <v>368.19479999999999</v>
+      </c>
+      <c r="E20" s="6">
+        <v>368.19479999999999</v>
+      </c>
+      <c r="F20" s="6">
+        <v>368.19479999999999</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="6">
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="K20" s="6">
+        <v>1.573</v>
+      </c>
+      <c r="L20" s="6">
+        <v>0.26429999999999998</v>
+      </c>
+      <c r="M20" s="6">
+        <v>1</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="D21" s="6">
+        <v>3681.9479999999999</v>
+      </c>
+      <c r="E21" s="6">
+        <v>3681.9479999999999</v>
+      </c>
+      <c r="F21" s="6">
+        <v>3681.9479999999999</v>
+      </c>
+      <c r="G21" s="8">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="6">
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="K21" s="6">
+        <v>1.573</v>
+      </c>
+      <c r="L21" s="6">
+        <v>0.26429999999999998</v>
+      </c>
+      <c r="M21" s="6">
+        <v>1</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="DDANofhB180K5nR+ifSRUz4Qrv/GLzEBIwwR4WqhY+0PNXMQyFjLqVYaduMduypSlj/78JGRQ2JLfxKKL0fN0Q==" saltValue="+dITltPo7KRKZUDpRyh4dQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="gntfjQe+XDifTx9eDOs2bRTrovzuUad6zl9Yun72u6HitVz0a3TkYefeyG0C7OA7lRqge3j8E/MABhhPenBODQ==" saltValue="YhhLjfCsHP3bAb+TmQw7JQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">

--- a/_MUT_USERBIN/GWF.xlsx
+++ b/_MUT_USERBIN/GWF.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Grdbldr\MUT_Examples\_MUT_USERBIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE88C2B4-255D-4758-B6CE-D069B15A4B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1053F4FF-B876-43E7-A151-F5BA7134095E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16200" xr2:uid="{122D133F-728C-41DF-B623-70CC6DE7E402}"/>
   </bookViews>
@@ -1108,8 +1108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C16DCD-FBFC-4CDF-A4BF-BCF0CDEB1753}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1969,13 +1969,13 @@
         <v>18</v>
       </c>
       <c r="J17" s="6">
+        <v>4.4299999999999999E-2</v>
+      </c>
+      <c r="K17" s="6">
+        <v>4.3564999999999996</v>
+      </c>
+      <c r="L17" s="6">
         <v>5.2479999999999999E-2</v>
-      </c>
-      <c r="K17" s="6">
-        <v>4.4299999999999999E-2</v>
-      </c>
-      <c r="L17" s="6">
-        <v>4.3564999999999996</v>
       </c>
       <c r="M17" s="6">
         <v>1</v>
@@ -2195,7 +2195,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="gntfjQe+XDifTx9eDOs2bRTrovzuUad6zl9Yun72u6HitVz0a3TkYefeyG0C7OA7lRqge3j8E/MABhhPenBODQ==" saltValue="YhhLjfCsHP3bAb+TmQw7JQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0NKnhfGWk2ssRoE/NG519MrPkU0fmOng6z6O5gpsDBnN9pGVR5pP7zaJxSklaDwOml2bW8qdAAiHqNX+feKvrw==" saltValue="bFiHxtdJeHJZpIOuWSsw5A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <extLst>
